--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:26:04+00:00</t>
+    <t>2025-10-28T16:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:05:01+00:00</t>
+    <t>2025-10-28T16:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-compound</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-compound</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:06:33+00:00</t>
+    <t>2025-10-28T16:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -601,7 +601,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/ValueSet/fr-mp-dose-form</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/ValueSet/fr-mp-dose-form</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -694,7 +694,7 @@
     <t>IsVehicle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-is-vehicle}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-is-vehicle}
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>itemReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-noncompound)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-noncompound)
 </t>
   </si>
   <si>
@@ -1187,7 +1187,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1202,7 +1202,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="47.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:48+00:00</t>
+    <t>2025-10-28T16:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:35+00:00</t>
+    <t>2025-10-28T16:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:42:48+00:00</t>
+    <t>2025-10-28T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:58:49+00:00</t>
+    <t>2025-10-28T17:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
